--- a/漢字（かんじ）/fu.xlsx
+++ b/漢字（かんじ）/fu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728208D2-694E-4F2D-814A-0A32EAC84D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE2CE5-5976-4D6B-968E-F1036E5BA6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2196" yWindow="2196" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ふ" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>風景｜ふうけい
+風味｜ふうみ
+風評｜ふうひょう
+風船｜ふうせん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不合格｜ふごうかく
 不公平感｜ふこうへいかん
 不平衡｜ふへいこう
@@ -232,14 +239,9 @@
 不況｜ふきょう
 不良｜ふりょう
 不利｜ふり
-不図｜ふと</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>風景｜ふうけい
-風味｜ふうみ
-風評｜ふうひょう
-風船｜ふうせん</t>
+不図｜ふと
+不十分｜ふじゅうぶん
+不足｜ふそく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -618,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -755,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">

--- a/漢字（かんじ）/fu.xlsx
+++ b/漢字（かんじ）/fu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEE2CE5-5976-4D6B-968E-F1036E5BA6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0C5CE-4553-4242-BC5F-7068CA243869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,12 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢復、回復｜かいふく
-複雑｜ふくざつ
-往復｜おうふく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交付｜こうふ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +236,14 @@
 不図｜ふと
 不十分｜ふじゅうぶん
 不足｜ふそく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢復｜かいふく
+回復｜かいふく
+複雑｜ふくざつ
+往復｜おうふく
+修復｜しゅうふく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,13 +294,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -620,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -680,16 +679,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.45">
@@ -712,7 +711,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -732,10 +731,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
@@ -757,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -768,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -782,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -801,18 +800,18 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/漢字（かんじ）/fu.xlsx
+++ b/漢字（かんじ）/fu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0C5CE-4553-4242-BC5F-7068CA243869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22CF164-B26B-4BB8-9E1B-908AC645B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
